--- a/TestData/Schuljahre/SCHULJAHR_2016/Noten_2/Notentabelle_13.xlsx
+++ b/TestData/Schuljahre/SCHULJAHR_2016/Noten_2/Notentabelle_13.xlsx
@@ -22,7 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="63">
   <si>
-    <t xml:space="preserve">Noten: Einsendeschluss 15.01.2016</t>
+    <t xml:space="preserve">Noten: Einsendeschluss 10.06.2016</t>
   </si>
   <si>
     <t xml:space="preserve">#</t>
@@ -43,7 +43,7 @@
     <t xml:space="preserve">Halbjahr</t>
   </si>
   <si>
-    <t xml:space="preserve">1</t>
+    <t xml:space="preserve">2</t>
   </si>
   <si>
     <t xml:space="preserve">id</t>
@@ -530,7 +530,7 @@
   <dimension ref="A1:U1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U1" activeCellId="0" sqref="U1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
